--- a/data/Behavioral/description/Barratt.xlsx
+++ b/data/Behavioral/description/Barratt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Research/Healthy Brain Network/Data Sharing/Release4/Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,16 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
-  <si>
-    <t>Total_Edu</t>
-  </si>
-  <si>
-    <t>Father_Edu</t>
-  </si>
-  <si>
-    <t>Mother_Edu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Spouse_Self_Total</t>
   </si>
@@ -84,21 +75,9 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>Mother's level of education</t>
-  </si>
-  <si>
-    <t>Father's level of education</t>
-  </si>
-  <si>
     <t>Education total score</t>
   </si>
   <si>
-    <t>Father's level of occupation</t>
-  </si>
-  <si>
-    <t>Mother's level of occupation</t>
-  </si>
-  <si>
     <t>Barratt Total Score</t>
   </si>
   <si>
@@ -115,9 +94,6 @@
   </si>
   <si>
     <t>Barratt Simplified Measure of Social Status (BSMSS)</t>
-  </si>
-  <si>
-    <t>Scores</t>
   </si>
   <si>
     <t>3=Less than 7th grade
@@ -138,6 +114,50 @@
 35=Nurse, skilled technician, medical technician, counselor, manager, police and fire personnel, financial manager, physical, occupational, speech therapist.
 40=Mechanical, nuclear, and electrical engineer, educational administrator, veterinarian, military officer, elementary, high school and special education teacher.
 45=Physician, attorney, professor, chemical and aerospace engineer, judge, CEO, senior manager, public official, psychologist, pharmacist, accountant.</t>
+  </si>
+  <si>
+    <t>financialsupport</t>
+  </si>
+  <si>
+    <t>Barratt_P1_Edu</t>
+  </si>
+  <si>
+    <t>Barratt_P2_Edu</t>
+  </si>
+  <si>
+    <t>Barratt_Total_Edu</t>
+  </si>
+  <si>
+    <t>Barratt_P1_Occ</t>
+  </si>
+  <si>
+    <t>Barratt_P2_Occ</t>
+  </si>
+  <si>
+    <t>Barratt_Total_Occ</t>
+  </si>
+  <si>
+    <t>Parent 1 level of education</t>
+  </si>
+  <si>
+    <t>Parent 2 level of education</t>
+  </si>
+  <si>
+    <t>Parent 1 level of occupation</t>
+  </si>
+  <si>
+    <t>Parent 2 level of occupation</t>
+  </si>
+  <si>
+    <t>Who is providing financial support for the child?</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1=Parent/Guardian 1 (Respondent)
+2=Parent/Guardian 2
+3=Both parents/guardians</t>
   </si>
 </sst>
 </file>
@@ -206,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,15 +246,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -301,25 +312,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -719,12 +735,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -734,169 +750,177 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>30</v>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -915,28 +939,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
